--- a/scrapers/scraped-data/Kupferne Rohrdommel - Distriktmeisterschaft Nord 2023_ilca 7.xlsx
+++ b/scrapers/scraped-data/Kupferne Rohrdommel - Distriktmeisterschaft Nord 2023_ilca 7.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
